--- a/data/output/FV2504_FV2410/UTILMD/55170.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55170.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="181">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="181">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -686,6 +686,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U71" totalsRowShown="0">
+  <autoFilter ref="A1:U71"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,7 +1005,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4317,5 +4350,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55170.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55170.xlsx
@@ -877,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -900,6 +900,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -908,6 +911,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1350,7 +1356,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1714,7 +1720,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1860,7 +1866,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2062,7 +2068,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2370,7 +2376,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2570,7 +2576,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2944,7 +2950,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3252,7 +3258,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3434,26 +3440,26 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="10" t="s">
         <v>172</v>
       </c>
       <c r="M43" s="5"/>
@@ -3471,33 +3477,33 @@
       <c r="A44" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>172</v>
       </c>
       <c r="M44" s="5"/>
@@ -3515,33 +3521,33 @@
       <c r="A45" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="J45" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>172</v>
       </c>
       <c r="M45" s="5"/>
@@ -3559,31 +3565,31 @@
       <c r="A46" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>172</v>
       </c>
       <c r="M46" s="5"/>
@@ -3601,31 +3607,31 @@
       <c r="A47" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>172</v>
       </c>
       <c r="M47" s="5"/>
@@ -3653,29 +3659,29 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="N48" s="11" t="s">
+      <c r="N48" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11" t="s">
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11" t="s">
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="V48" s="11"/>
+      <c r="V48" s="13"/>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
@@ -3691,35 +3697,35 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="N49" s="11" t="s">
+      <c r="N49" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11" t="s">
+      <c r="S49" s="13"/>
+      <c r="T49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="U49" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="V49" s="11"/>
+      <c r="U49" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V49" s="13"/>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="5" t="s">
@@ -3735,35 +3741,35 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="N50" s="11" t="s">
+      <c r="N50" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11" t="s">
+      <c r="S50" s="13"/>
+      <c r="T50" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="U50" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="V50" s="11"/>
+      <c r="U50" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V50" s="13"/>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
@@ -3779,33 +3785,33 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="N51" s="11" t="s">
+      <c r="N51" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O51" s="11" t="s">
+      <c r="O51" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P51" s="11" t="s">
+      <c r="P51" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11" t="s">
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11" t="s">
+      <c r="S51" s="13"/>
+      <c r="T51" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="U51" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="V51" s="11"/>
+      <c r="U51" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V51" s="13"/>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" s="5" t="s">
@@ -3821,55 +3827,55 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="N52" s="11" t="s">
+      <c r="N52" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O52" s="11" t="s">
+      <c r="O52" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="P52" s="11" t="s">
+      <c r="P52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11" t="s">
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11" t="s">
+      <c r="S52" s="13"/>
+      <c r="T52" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="U52" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="V52" s="11"/>
+      <c r="U52" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V52" s="13"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5" t="s">
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
         <v>163</v>
       </c>
       <c r="K53" s="6" t="s">
@@ -3878,23 +3884,23 @@
       <c r="L53" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="O53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P53" s="5"/>
+      <c r="P53" s="2"/>
       <c r="Q53" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5" t="s">
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2" t="s">
         <v>163</v>
       </c>
       <c r="V53" s="6" t="s">
@@ -4078,22 +4084,22 @@
       <c r="V56" s="5"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
         <v>162</v>
       </c>
       <c r="K57" s="6" t="s">
@@ -4102,19 +4108,19 @@
       <c r="L57" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5" t="s">
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
         <v>162</v>
       </c>
       <c r="V57" s="6" t="s">
@@ -4310,7 +4316,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -4510,7 +4516,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -4692,48 +4698,48 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="2"/>
       <c r="L69" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5" t="s">
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P69" s="5"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="V69" s="5"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
